--- a/test/quantization_scheme/quantization_scheme.xlsx
+++ b/test/quantization_scheme/quantization_scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\Desktop\Main\City\Individual Project\Source code\test\quantization_scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B52CC-ABF7-4B1B-A52E-1BFFBDDE78AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72770C11-A14E-44DD-A131-709D0194D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="765" windowWidth="16065" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,8 +545,8 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="E3" s="3">
-        <f xml:space="preserve"> SUM(1, -D3, -C3)</f>
-        <v>0.16669999999999996</v>
+        <f xml:space="preserve"> (5 * SUM(1, -D3) + 4 * SUM(1, -C3)) / 9</f>
+        <v>0.53705555555555551</v>
       </c>
       <c r="F3" s="4">
         <v>3.3031354166666298</v>
@@ -567,8 +567,8 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <f xml:space="preserve"> SUM(1, -D4, -C4)</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E11" si="0" xml:space="preserve"> (5 * SUM(1, -D4) + 4 * SUM(1, -C4)) / 9</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F4" s="4">
         <v>2.8088921712962298</v>
@@ -589,8 +589,8 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <f xml:space="preserve"> SUM(1, -D5, -C5)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F5" s="4">
         <v>3.0463254388891801</v>
@@ -611,8 +611,8 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6" si="0" xml:space="preserve"> SUM(1, -D6, -C6)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F6" s="4">
         <v>3.1144755481481501</v>
@@ -633,8 +633,8 @@
         <v>0.68059999999999998</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:E8" si="1" xml:space="preserve"> SUM(1, -D7, -C7)</f>
-        <v>0.22910000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.58175555555555547</v>
       </c>
       <c r="F7" s="4">
         <v>3.03795371759271</v>
@@ -655,8 +655,8 @@
         <v>0.67589999999999995</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.20600000000000007</v>
+        <f t="shared" si="0"/>
+        <v>0.57201111111111114</v>
       </c>
       <c r="F8" s="4">
         <v>3.2315838398148098</v>
@@ -677,8 +677,8 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E9" s="3">
-        <f xml:space="preserve"> SUM(1, -D9, -C9)</f>
-        <v>3.8000000000000256E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.55690000000000006</v>
       </c>
       <c r="F9" s="4">
         <v>3.0880979981481702</v>
@@ -699,8 +699,8 @@
         <v>1.2E-2</v>
       </c>
       <c r="E10" s="3">
-        <f xml:space="preserve"> SUM(1, -D10, -C10)</f>
-        <v>1.8100000000000005E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.56226666666666658</v>
       </c>
       <c r="F10" s="4">
         <v>3.0700092777777601</v>
@@ -721,8 +721,8 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="E11" s="3">
-        <f xml:space="preserve"> SUM(1, -D11, -C11)</f>
-        <v>8.5000000000000631E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.55898888888888887</v>
       </c>
       <c r="F11" s="4">
         <v>3.0840594962963599</v>
